--- a/data/income_statement/2digits/size/59_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/59_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>59-Motion picture, video and television programme production, sound recording and music publishing activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>59-Motion picture, video and television programme production, sound recording and music publishing activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,290 +841,330 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>696325.7460400001</v>
+        <v>720082.35036</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>889715.1609299999</v>
+        <v>896058.1821399999</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>989729.39201</v>
+        <v>1001267.15001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1124343.25702</v>
+        <v>1106854.46399</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1298310.2393</v>
+        <v>1285306.44873</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1456496.71301</v>
+        <v>1434940.31824</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1633778.1163</v>
+        <v>1730695.60968</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1911277.51211</v>
+        <v>1927985.06611</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>2072425.61559</v>
+        <v>2094527.42266</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1647681.30108</v>
+        <v>1585025.56991</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2415373.03763</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2336446.55954</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>2095942.547</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>676091.3902600001</v>
+        <v>700174.63687</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>862793.3866900001</v>
+        <v>869720.4307799999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>966959.7668300001</v>
+        <v>977787.38252</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1081024.3986</v>
+        <v>1065651.53523</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1250162.98131</v>
+        <v>1230671.48795</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1379559.22387</v>
+        <v>1358400.95793</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1556688.08522</v>
+        <v>1640774.77185</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1829115.35429</v>
+        <v>1847576.11535</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>1954738.01407</v>
+        <v>1982621.76204</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1529232.64284</v>
+        <v>1486402.49418</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>2076479.89583</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1952539.1697</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1813273.475</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>10184.14804</v>
+        <v>11725.71536</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>11535.05412</v>
+        <v>12787.70496</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>12331.26636</v>
+        <v>16639.83582</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>13403.44336</v>
+        <v>14627.6411</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>25007.52062</v>
+        <v>32942.87523</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>50885.33930000001</v>
+        <v>50796.6914</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>45106.43631</v>
+        <v>58173.44553</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>51617.12254</v>
+        <v>52002.79266</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>85102.61143</v>
+        <v>83602.48493000001</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>81064.49146999999</v>
+        <v>68528.27797</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>279038.48406</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>329034.06416</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>245561.013</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>10050.20774</v>
+        <v>8181.99813</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>15386.72012</v>
+        <v>13550.0464</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>10438.35882</v>
+        <v>6839.93167</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>29915.41506</v>
+        <v>26575.28766</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>23139.73737</v>
+        <v>21692.08555</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>26052.14984</v>
+        <v>25742.66891</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>31983.59477</v>
+        <v>31747.3923</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>30545.03528</v>
+        <v>28406.1581</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>32584.99009</v>
+        <v>28303.17569</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>37384.16677</v>
+        <v>30094.79776</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>59854.65774</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>54873.32568</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>37108.059</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>6940.980930000001</v>
+        <v>6809.89066</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>6459.5005</v>
+        <v>6401.255859999999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>5419.309389999999</v>
+        <v>5464.78222</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>12866.63533</v>
+        <v>13011.90727</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>11078.12939</v>
+        <v>8695.39452</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>18829.51585</v>
+        <v>16789.50761</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>4960.752530000001</v>
+        <v>9298.22545</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>25438.63521</v>
+        <v>27717.9302</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>12247.49351</v>
+        <v>20168.33235</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>26162.54538</v>
+        <v>24750.94964</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>34260.02403</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>28458.74794</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>22911.093</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>5749.92849</v>
+        <v>5510.03401</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>4578.58259</v>
+        <v>4531.737950000001</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>4051.86206</v>
+        <v>4107.95866</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>10158.82044</v>
+        <v>10306.32474</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>8958.650539999999</v>
+        <v>6602.65325</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>14342.93569</v>
+        <v>12644.42478</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>4363.405150000001</v>
+        <v>6888.753519999999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>20304.41872</v>
+        <v>22126.89956</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>9794.87457</v>
+        <v>17737.14325</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>23180.1046</v>
+        <v>22133.5254</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>33008.28734</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>27207.14125</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>21736.646</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1157.61453</v>
+        <v>1063.22747</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1880.91791</v>
+        <v>1869.51791</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1367.44733</v>
+        <v>1356.82356</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>2705.58253</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>2102.71015</v>
+        <v>2090.33015</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>4103.95171</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>35.5684</v>
+        <v>1550.99821</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>3753.13293</v>
+        <v>4675.464910000001</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>1019.64474</v>
+        <v>1019.6479</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>2682.92622</v>
+        <v>2318.73639</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1251.73669</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1251.60669</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1093.355</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>33.43791</v>
+        <v>236.62918</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>0</v>
@@ -1232,352 +1173,397 @@
         <v>0</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>2.23236</v>
+        <v>0</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>16.7687</v>
+        <v>2.41112</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>382.62845</v>
+        <v>41.13112</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>561.7789799999999</v>
+        <v>858.47372</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1381.08356</v>
+        <v>915.56573</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>1432.9742</v>
+        <v>1411.5412</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>299.51456</v>
+        <v>298.68785</v>
       </c>
       <c r="M12" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>81.092</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>689384.76511</v>
+        <v>713272.4596999999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>883255.6604299999</v>
+        <v>889656.92628</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>984310.08262</v>
+        <v>995802.36779</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1111476.62169</v>
+        <v>1093842.55672</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1287232.10991</v>
+        <v>1276611.05421</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1437667.19716</v>
+        <v>1418150.81063</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1628817.36377</v>
+        <v>1721397.38423</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1885838.8769</v>
+        <v>1900267.13591</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>2060178.12208</v>
+        <v>2074359.09031</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1621518.7557</v>
+        <v>1560274.62027</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2381113.0136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2307987.8116</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>2073031.454</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>536586.00994</v>
+        <v>570637.3231800001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>689965.5017799999</v>
+        <v>703551.54364</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>784663.16238</v>
+        <v>797474.99545</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>888552.1779</v>
+        <v>861374.04587</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>997395.64397</v>
+        <v>989034.56326</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1077098.88052</v>
+        <v>1056414.71378</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1256508.25708</v>
+        <v>1326948.72914</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1482011.97468</v>
+        <v>1485825.89603</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>1689274.70333</v>
+        <v>1697410.17962</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1197598.42858</v>
+        <v>1169230.35613</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1805823.32894</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1768081.92916</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1593802.645</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>7870.39435</v>
+        <v>6402.9141</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>17737.82766</v>
+        <v>12984.7742</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>31235.18485</v>
+        <v>30863.66591</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>21448.77466</v>
+        <v>21418.77466</v>
       </c>
       <c r="G15" s="48" t="n">
         <v>45497.47428</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>29834.70406</v>
+        <v>28781.14276</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>51871.04202</v>
+        <v>57336.43405</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>47929.44976</v>
+        <v>55044.65584000001</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>1119.6309</v>
+        <v>1102.30685</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>132182.31032</v>
+        <v>112379.64754</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>62350.50509999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>60222.54773999999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>56416.194</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>26200.54886</v>
+        <v>18998.44834</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>26044.29053</v>
+        <v>26008.64274</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>54991.90863</v>
+        <v>52089.91956</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>51945.25628</v>
+        <v>52739.47515</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>66961.11843</v>
+        <v>53141.57227</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>76465.45616</v>
+        <v>68346.62712999999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>31533.41647</v>
+        <v>38328.24404</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>80748.32543000001</v>
+        <v>80841.59613999999</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>90617.44709999999</v>
+        <v>123313.9571</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>52501.2588</v>
+        <v>52074.37837000001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>66340.60355999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>52460.27522</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>104875.803</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>501743.4577</v>
+        <v>533233.02879</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>646129.6429300001</v>
+        <v>664504.38604</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>694387.50794</v>
+        <v>712992.7727</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>812068.5404300001</v>
+        <v>785649.69592</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>883630.23743</v>
+        <v>888982.54685</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>965552.33694</v>
+        <v>954172.95111</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1170511.70075</v>
+        <v>1228577.28728</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1353110.75751</v>
+        <v>1349716.20207</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1594133.11335</v>
+        <v>1571773.82904</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1012786.69969</v>
+        <v>1004648.17045</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1676272.12028</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1655399.1062</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1430864.839</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>771.6090300000001</v>
+        <v>12002.93195</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>53.74066000000001</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>4048.56096</v>
+        <v>1528.63728</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>3089.60653</v>
+        <v>1566.10014</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>1306.81383</v>
+        <v>1412.96986</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>5246.383360000001</v>
+        <v>5113.99278</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>2592.09784</v>
+        <v>2706.76377</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>223.44198</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>3404.51198</v>
+        <v>1220.08663</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>128.15977</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>860.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>1645.809</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>152798.75517</v>
+        <v>142635.13652</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>193290.15865</v>
+        <v>186105.38264</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>199646.92024</v>
+        <v>198327.37234</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>222924.44379</v>
+        <v>232468.51085</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>289836.46594</v>
+        <v>287576.49095</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>360568.31664</v>
+        <v>361736.09685</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>372309.10669</v>
+        <v>394448.65509</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>403826.90222</v>
+        <v>414441.23988</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>370903.41875</v>
+        <v>376948.91069</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>423920.32712</v>
+        <v>391044.26414</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>575289.6846599999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>539905.88244</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>479228.809</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>106306.28326</v>
+        <v>101269.19638</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>132139.66396</v>
+        <v>117059.33362</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>165348.06963</v>
+        <v>182318.09624</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>171644.27306</v>
+        <v>177072.4552</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>174186.15942</v>
+        <v>185612.78849</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>219560.59241</v>
+        <v>224858.19605</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>206840.12578</v>
+        <v>228037.63535</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>298051.35185</v>
+        <v>296627.28147</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>241812.90991</v>
+        <v>267865.65475</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>253569.7271</v>
+        <v>219757.01531</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>367754.7595399999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>352056.60742</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>303053.894</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>943.85425</v>
+        <v>100.69441</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1398.22696</v>
+        <v>907.91328</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>0</v>
@@ -1606,206 +1592,236 @@
       <c r="M21" s="48" t="n">
         <v>74007.78048</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>35068.556</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>24940.87326</v>
+        <v>24812.33621</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>26352.6826</v>
+        <v>26966.18499</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>44052.78076</v>
+        <v>42855.98708</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>49349.35306</v>
+        <v>49650.09713</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>43295.19473999999</v>
+        <v>44361.46787</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>58116.5713</v>
+        <v>55053.36565</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>41642.53799</v>
+        <v>50193.67337999999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>67513.66628</v>
+        <v>74178.11951</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>82872.91064</v>
+        <v>76883.48039999999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>82165.28475000001</v>
+        <v>79682.4819</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>95756.79143000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>90095.53769</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>97466.909</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>80421.55575</v>
+        <v>76356.16576</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>104388.7544</v>
+        <v>89185.23534999999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>121295.28887</v>
+        <v>139462.10916</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>122294.92</v>
+        <v>127422.35807</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>129198.08527</v>
+        <v>139558.44121</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>159037.24979</v>
+        <v>167398.05908</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>164237.04358</v>
+        <v>176883.41776</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>219521.25582</v>
+        <v>211432.73221</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>158264.78958</v>
+        <v>190306.96466</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>169977.17382</v>
+        <v>138647.26488</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>197990.18763</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>187953.28925</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>170518.429</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>46492.47191000001</v>
+        <v>41365.94014</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>61150.49469000001</v>
+        <v>69046.04902000001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>34298.85061</v>
+        <v>16009.2761</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>51280.17073</v>
+        <v>55396.05565</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>115650.30652</v>
+        <v>101963.70246</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>141007.72423</v>
+        <v>136877.9008</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>165468.98091</v>
+        <v>166411.01974</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>105775.55037</v>
+        <v>117813.95841</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>129090.50884</v>
+        <v>109083.25594</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>170350.60002</v>
+        <v>171287.24883</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>207534.92512</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>187849.27502</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>176174.915</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>26352.13852</v>
+        <v>34145.21956000001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>19745.68931</v>
+        <v>19312.76404</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>41816.54493</v>
+        <v>44587.61482</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>39052.09822</v>
+        <v>41355.18277</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>27226.12457</v>
+        <v>42421.95527</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>29518.58803</v>
+        <v>56698.50007</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>45996.48497999999</v>
+        <v>55740.96461</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>58664.40957</v>
+        <v>48342.15190999999</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>57938.92861</v>
+        <v>43170.05582</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>107438.20015</v>
+        <v>87988.20791</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>102184.43435</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>80051.09564</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>114819.076</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>312.64541</v>
+        <v>0</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>421.06473</v>
+        <v>8.21308</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>263.93494</v>
+        <v>2103.92636</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>1260.83864</v>
+        <v>3941.43827</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1004.46182</v>
+        <v>9609.656590000001</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>816.5110500000001</v>
+        <v>14772.1062</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>1413.28317</v>
+        <v>16413.28317</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>6174.289839999999</v>
+        <v>0</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>9149.910800000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1838,64 +1854,74 @@
         <v>754.2565</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>6614.740940000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>6334.94604</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>20.963</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>7136.096320000001</v>
+        <v>5390.82688</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>6517.18957</v>
+        <v>5031.31447</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>4887.73701</v>
+        <v>5641.09648</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>9267.12449</v>
+        <v>7788.28442</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>7051.485729999999</v>
+        <v>10655.6094</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>8395.181129999999</v>
+        <v>15592.93652</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>11607.5314</v>
+        <v>11938.0304</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>15035.51442</v>
+        <v>12004.63412</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>15721.12918</v>
+        <v>15214.68754</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>21696.56233</v>
+        <v>18571.1777</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>25536.39703</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>21642.8717</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>14806.318</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>1401.83215</v>
+        <v>1473.84253</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>951.24928</v>
+        <v>956.49928</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>1037.2615</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1075.95475</v>
+        <v>1414.69736</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>924.52203</v>
@@ -1904,7 +1930,7 @@
         <v>1485.92044</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>859.45777</v>
+        <v>859.0931800000001</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>909.21669</v>
@@ -1918,128 +1944,148 @@
       <c r="M29" s="48" t="n">
         <v>192.20328</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>31.423</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>605.9048200000001</v>
+        <v>1034.21006</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>264.69193</v>
+        <v>270.48295</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>1422.65687</v>
+        <v>1772.96959</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>140.33219</v>
+        <v>141.66618</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>269.43606</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>340.50926</v>
+        <v>583.00926</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>680.88355</v>
+        <v>1266.18542</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>114.27481</v>
+        <v>262.21261</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>183.88461</v>
+        <v>210.15244</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>126.04031</v>
+        <v>197.61587</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>860.5366599999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>0.708</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>763.58563</v>
+        <v>1090.526</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>309.4456999999999</v>
+        <v>481.68029</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>673.35762</v>
+        <v>527.4648199999999</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>933.1618300000001</v>
+        <v>665.81042</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>727.27354</v>
+        <v>672.62144</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1218.38487</v>
+        <v>1433.20102</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>2634.7308</v>
+        <v>2122.01107</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>2230.934690000001</v>
+        <v>1693.74336</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1215.33781</v>
+        <v>1303.98789</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>562.59669</v>
+        <v>539.2335400000001</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>1638.20865</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>5238.903</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>14031.12184</v>
+        <v>22841.08835</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>8355.904790000001</v>
+        <v>9179.32501</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>12737.70235</v>
+        <v>12271.95472</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>7136.91318</v>
+        <v>8016.15553</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>11742.52748</v>
+        <v>25273.17445</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>12010.16595</v>
+        <v>23371.63954</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>24199.42939</v>
+        <v>20517.16607</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>18371.05841</v>
+        <v>13347.48015</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>24940.44203</v>
+        <v>14545.80778</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>67298.24639</v>
+        <v>57645.79977999999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>46655.7846</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>39336.95125999999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>89353.989</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>480</v>
@@ -2057,16 +2103,16 @@
         <v>0</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>13.13021</v>
+        <v>12.71187</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>2.96511</v>
+        <v>0.68511</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>533.14672</v>
+        <v>0</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2105,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>0</v>
+        <v>37.67187999999999</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>0</v>
@@ -2113,155 +2164,175 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>1620.95235</v>
+        <v>1834.72574</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>2266.73121</v>
+        <v>2725.83686</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>7315.05896</v>
+        <v>7754.10567</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>3256.64127</v>
+        <v>3405.99872</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>6510.879730000001</v>
+        <v>4626.591890000001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>4382.33687</v>
+        <v>3940.92735</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>5169.941019999999</v>
+        <v>4266.37227</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>20587.16227</v>
+        <v>3710.8967</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>13951.44613</v>
+        <v>10464.20616</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>10824.59564</v>
+        <v>10278.51207</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>11536.65239</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>10045.37805</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>5366.772</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>21995.72062</v>
+        <v>30297.63677</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>11708.0163</v>
+        <v>12853.39273</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>18655.43164</v>
+        <v>18896.56491</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>8265.56883</v>
+        <v>9964.473209999998</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>14544.24397</v>
+        <v>12581.59618</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>36809.34921</v>
+        <v>40058.16612</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>36640.75894000001</v>
+        <v>26055.03679</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>19855.3961</v>
+        <v>13098.39617</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>27122.22928</v>
+        <v>17195.74133</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>55884.96838000001</v>
+        <v>47198.56704</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>53076.0312</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>50042.48361</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>100246.584</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>2549.70319</v>
+        <v>5922.3215</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>428.17843</v>
+        <v>1908.01404</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>785.61656</v>
+        <v>1477.35377</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1134.45769</v>
+        <v>2525.5272</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1254.86501</v>
+        <v>1070.38766</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1247.31183</v>
+        <v>979.49519</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1599.57418</v>
+        <v>2360.83139</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1300.81265</v>
+        <v>1254.50876</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>1770.58698</v>
+        <v>1692.3271</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>1984.3405</v>
+        <v>1913.07913</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>429.02755</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>320.44329</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>385.004</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>2673.48304</v>
+        <v>2727.22131</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>3003.25281</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1368.71218</v>
+        <v>1737.65968</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1410.9755</v>
+        <v>1431.75702</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>2214.71168</v>
+        <v>2169.71168</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>23345.39428</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>4945.83425</v>
+        <v>5229.80623</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>3174.028</v>
+        <v>3101.00206</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>3486.34482</v>
+        <v>3587.49828</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>164.60381</v>
@@ -2269,35 +2340,40 @@
       <c r="M38" s="48" t="n">
         <v>561.3605699999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>1008.221</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>300.87141</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>2.61872</v>
+        <v>2.61991</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>65.53059999999999</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>184.67015</v>
+        <v>72.48259</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>25.89676</v>
+        <v>18.83591</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>15.02386</v>
+        <v>11.00561</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>1.84195</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>1440.85118</v>
+        <v>12.32926</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>7.32275</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0.044</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>12065.61076</v>
+        <v>17539.34015</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>7305.89094</v>
+        <v>6982.76435</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>15535.69119</v>
+        <v>14644.91869</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>5186.987</v>
+        <v>5778.20506</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>10599.07566</v>
+        <v>8910.821759999999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>10689.02243</v>
+        <v>14238.40487</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>23994.57692</v>
+        <v>12290.37442</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>13235.81459</v>
+        <v>7640.048720000001</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>19982.79735</v>
+        <v>11238.77849</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>50896.40223000001</v>
+        <v>42262.44493000001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>48247.7007</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>45634.60755</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>91860.16499999999</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,248 +2516,283 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>4406.05222</v>
+        <v>3807.8824</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>968.0753999999999</v>
+        <v>956.74162</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>895.60411</v>
+        <v>966.8251700000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>342.90119</v>
+        <v>150.92404</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>449.69486</v>
+        <v>411.83917</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1506.59681</v>
+        <v>1477.86617</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>6098.93164</v>
+        <v>6172.1828</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>703.88968</v>
+        <v>1090.50737</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1875.17738</v>
+        <v>669.81471</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>2839.62184</v>
+        <v>2858.43917</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>3837.94238</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>3526.0722</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>6993.15</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>15613.53086</v>
+        <v>19541.26381</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>13689.62024</v>
+        <v>17079.8079</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>18126.94573</v>
+        <v>21335.85546</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>20285.37232</v>
+        <v>18176.13373</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>21881.13327</v>
+        <v>17252.14766</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>24477.92585</v>
+        <v>18883.52405</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>24102.16887</v>
+        <v>18653.73939</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>37162.46021</v>
+        <v>25166.42756</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>31233.16394</v>
+        <v>29537.03098</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>57248.45446</v>
+        <v>45440.39574</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>69986.28365000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>52281.83409999999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>33039.148</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>15613.53086</v>
+        <v>19202.1806</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>12709.27487</v>
+        <v>16386.92805</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>17332.85485</v>
+        <v>20541.76458</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>20285.33851</v>
+        <v>17262.00843</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>21843.99915</v>
+        <v>17215.01354</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>24464.39867</v>
+        <v>18883.52405</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>23977.23865</v>
+        <v>18533.58667</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>37039.03614</v>
+        <v>25043.00349</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>31140.8589</v>
+        <v>29537.03098</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>54952.53175</v>
+        <v>43144.47303</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>68899.91922</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>51328.65197</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>32852.285</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>0</v>
+        <v>339.08321</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>980.34537</v>
+        <v>692.87985</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>794.09088</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>0.03381</v>
+        <v>914.1253</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>37.13412</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>13.52718</v>
+        <v>0</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>124.93022</v>
+        <v>120.15272</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>123.42407</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>92.30503999999999</v>
+        <v>0</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>2295.92271</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1086.36443</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>953.18213</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>186.863</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>35235.35895</v>
+        <v>25672.25912</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>55498.54746</v>
+        <v>58425.61243</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>39333.01817</v>
+        <v>20364.47055</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>61781.3278</v>
+        <v>68610.63148000001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>106451.05385</v>
+        <v>114551.91389</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>109239.0372</v>
+        <v>134634.7107</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>150722.53808</v>
+        <v>177443.20817</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>107422.10363</v>
+        <v>127891.28659</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>128674.04423</v>
+        <v>105520.53945</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>164655.37733</v>
+        <v>166636.49396</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>186657.04462</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>165576.05295</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>157708.259</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>15515.86041</v>
+        <v>15402.84153</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>13034.58104</v>
+        <v>16678.11984</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>6615.40477</v>
+        <v>6081.186100000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>7512.251220000001</v>
+        <v>4478.47993</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>8347.72896</v>
+        <v>7512.972809999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>5007.031379999999</v>
+        <v>4669.944640000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>24357.48254</v>
+        <v>17821.72437</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>7600.79096</v>
+        <v>5575.06163</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>14999.39897</v>
+        <v>11418.74329</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>6658.147120000001</v>
+        <v>6219.59393</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>10792.70804</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>10263.75284</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>22411.502</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>11150.62935</v>
+        <v>11030.21819</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>52.11542</v>
@@ -2675,7 +2801,7 @@
         <v>49.88795</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>204.87035</v>
+        <v>21.64705</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>38.74701</v>
@@ -2684,103 +2810,118 @@
         <v>32.03249</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>110.86923</v>
+        <v>147.61788</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>42.10958</v>
+        <v>44.90425</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>557.7732900000001</v>
+        <v>557.7582600000001</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>37.83703</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1518.70951</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1498.06593</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>27.65</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>4365.23106</v>
+        <v>4372.62334</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>12982.46562</v>
+        <v>16626.00442</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>6565.516820000001</v>
+        <v>6031.298150000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>7307.38087</v>
+        <v>4456.83288</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>8308.981949999999</v>
+        <v>7474.2258</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>4974.998890000001</v>
+        <v>4637.91215</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>24246.61331</v>
+        <v>17674.10649</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>7558.68138</v>
+        <v>5530.15738</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>14441.62568</v>
+        <v>10860.98503</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>6620.31009</v>
+        <v>6181.7569</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>9273.998529999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>8765.68691</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>22383.852</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>7199.436970000001</v>
+        <v>5720.127300000001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>5363.38168</v>
+        <v>4734.824119999999</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>74276.45880999998</v>
+        <v>60266.61885</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>21310.92328</v>
+        <v>19555.19314</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>21840.13873</v>
+        <v>6413.827730000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>18281.04965</v>
+        <v>13088.15677</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>25611.80422</v>
+        <v>24671.55557</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>42676.56357</v>
+        <v>22964.88515</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>14608.87663</v>
+        <v>10890.46868</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>49906.68439</v>
+        <v>46931.07488</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>23307.48816</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>22361.33052</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>27883.876</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2807,7 +2948,7 @@
         <v>2.68159</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>99.66767999999999</v>
+        <v>0</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>205.96364</v>
@@ -2815,14 +2956,19 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>304.176</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>542.86744</v>
+        <v>74.04098</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>262.6462099999999</v>
@@ -2831,187 +2977,210 @@
         <v>476.78719</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>84.99739</v>
+        <v>148.06319</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>223.65068</v>
+        <v>221.63146</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>264.29083</v>
+        <v>241.20518</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>213.37854</v>
+        <v>271.58086</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>744.33653</v>
+        <v>645.74573</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>340.82939</v>
+        <v>273.18692</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>55.65103</v>
+        <v>171.86186</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>538.77859</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>539.7285899999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>604.083</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>6656.569530000001</v>
+        <v>5646.08632</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>5094.01511</v>
+        <v>4465.45755</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>73799.67161999999</v>
+        <v>59789.83166</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>21225.92589</v>
+        <v>19407.12995</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>21616.48805</v>
+        <v>6192.196269999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>18016.75882</v>
+        <v>12846.95159</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>25398.42568</v>
+        <v>24399.97471</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>41929.54545000001</v>
+        <v>22316.45783</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>14168.37956</v>
+        <v>10617.28176</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>49645.06972</v>
+        <v>46553.24938</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>22768.70957</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>21821.60193</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>26975.617</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>43551.78239</v>
+        <v>35354.97335</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>63169.74682</v>
+        <v>70368.90815</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-28328.03587</v>
+        <v>-33820.96219999999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>47982.65573999999</v>
+        <v>53533.91827</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>92958.64408</v>
+        <v>115651.05897</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>95965.01893000001</v>
+        <v>126216.49857</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>149468.2164</v>
+        <v>170593.37697</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>72346.33102</v>
+        <v>110501.46307</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>129064.56657</v>
+        <v>106048.81406</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>121406.84006</v>
+        <v>125925.01301</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>174142.2645</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>153478.47527</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>152235.885</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>10817.85131</v>
+        <v>10878.15067</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>15890.40693</v>
+        <v>13143.77751</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>12923.1463</v>
+        <v>12448.63443</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>13946.83772</v>
+        <v>16253.643</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>25559.45562</v>
+        <v>25401.05103</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>26032.57407</v>
+        <v>25349.80307</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>33078.88069</v>
+        <v>34208.69906</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>27553.10948</v>
+        <v>23828.65087</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>31731.3658</v>
+        <v>32962.22035</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>30492.69971</v>
+        <v>28903.55685</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>31965.56237</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>32959.45871</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>38067.394</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>32733.93108</v>
+        <v>24476.82268</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>47279.33989</v>
+        <v>57225.13064</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-41251.18217</v>
+        <v>-46269.59662999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>34035.81802000001</v>
+        <v>37280.27527000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>67399.18846</v>
+        <v>90250.00794</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>69932.44486</v>
+        <v>100866.6955</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>116389.33571</v>
+        <v>136384.67791</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>44793.22154</v>
+        <v>86672.81219999999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>97333.20077</v>
+        <v>73086.59371000002</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>90914.14034999999</v>
+        <v>97021.45616</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>142176.70213</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>120519.01656</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>114168.491</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
+        <v>52</v>
+      </c>
+      <c r="D59" s="35" t="n">
+        <v>57</v>
+      </c>
+      <c r="E59" s="35" t="n">
         <v>68</v>
       </c>
-      <c r="D59" s="35" t="n">
-        <v>77</v>
-      </c>
-      <c r="E59" s="35" t="n">
-        <v>90</v>
-      </c>
       <c r="F59" s="35" t="n">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="G59" s="35" t="n">
+        <v>56</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>73</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>85</v>
+      </c>
+      <c r="J59" s="35" t="n">
+        <v>81</v>
+      </c>
+      <c r="K59" s="35" t="n">
         <v>84</v>
       </c>
-      <c r="H59" s="35" t="n">
-        <v>106</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>120</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>125</v>
-      </c>
-      <c r="K59" s="35" t="n">
-        <v>137</v>
-      </c>
       <c r="L59" s="35" t="n">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>56</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>